--- a/data_slopes_analysis.xlsx
+++ b/data_slopes_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\github\Projet_ter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06292624-219F-4E39-841A-0A848AFEC963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096B1CF-5A7C-4B7D-BD04-78DFA271A20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -152,9 +152,6 @@
   <si>
     <t>s1, s2</t>
   </si>
-  <si>
-    <t>_</t>
-  </si>
 </sst>
 </file>
 
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,25 +383,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,40 +439,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,1002 +747,1002 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
-        <v>1</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4" s="36">
         <v>13</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="8">
+      <c r="G4" s="37"/>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="41">
+        <v>0.73</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="41">
+        <v>32</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="F6" s="9">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="5">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="F7" s="10">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F8" s="12">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="13">
+        <v>9</v>
+      </c>
+      <c r="I8" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="15">
+        <v>14</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <v>13</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F10" s="36">
+        <v>13</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="41">
+        <v>0.73</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0.84</v>
+      </c>
+      <c r="F11" s="41">
         <v>32</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G11" s="37"/>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="21">
-        <v>0.53</v>
-      </c>
-      <c r="D6" s="21">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.86</v>
       </c>
-      <c r="E6" s="21">
-        <v>0.66</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E12" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="F12" s="9">
         <v>29</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="8">
+      <c r="G12" s="2"/>
+      <c r="H12" s="5">
         <v>25</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I12" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="22">
-        <v>0.73</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.46</v>
-      </c>
-      <c r="F7" s="22">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="F13" s="10">
         <v>33</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10">
-        <v>22</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="G13" s="2"/>
+      <c r="H13" s="7">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="9">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="E8" s="26">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.72</v>
       </c>
-      <c r="F8" s="26">
-        <v>15</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="27">
-        <v>9</v>
-      </c>
-      <c r="I8" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="30">
-        <v>0.68</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0.93</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0.79</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="F15" s="11">
         <v>14</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31">
-        <v>1</v>
-      </c>
-      <c r="I9" s="32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="8">
-        <v>13</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="21">
-        <v>0.51</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.86</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.64</v>
-      </c>
-      <c r="F12" s="21">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8">
-        <v>25</v>
-      </c>
-      <c r="I12" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22">
-        <v>0.27</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.39</v>
-      </c>
-      <c r="F13" s="22">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="10">
-        <v>24</v>
-      </c>
-      <c r="I13" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="21">
-        <v>1</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.27</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="F14" s="21">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D15" s="23">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.72</v>
-      </c>
-      <c r="F15" s="23">
-        <v>14</v>
-      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36">
         <v>13</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="8">
+      <c r="G19" s="37"/>
+      <c r="H19" s="38">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39">
         <v>13</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="A20" s="40"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0.83</v>
+      </c>
+      <c r="F20" s="41">
         <v>32</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="G20" s="37"/>
+      <c r="H20" s="42">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="21">
+      <c r="B21" s="20"/>
+      <c r="C21" s="9">
         <v>0.51</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="9">
         <v>0.76</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="9">
         <v>0.61</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="9">
         <v>29</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <v>22</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="22">
+      <c r="A22" s="21"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="10">
         <v>0.63</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="10">
         <v>0.36</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="10">
         <v>0.46</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="10">
         <v>33</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>21</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26">
-        <v>1</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="B23" s="23"/>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
         <v>0.4</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="12">
         <v>15</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="27">
+      <c r="G23" s="18"/>
+      <c r="H23" s="13">
         <v>6</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30">
+      <c r="A24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="15">
         <v>0.61</v>
       </c>
-      <c r="D24" s="30">
-        <v>1</v>
-      </c>
-      <c r="E24" s="30">
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
         <v>0.76</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="15">
         <v>14</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="31">
-        <v>0</v>
-      </c>
-      <c r="I24" s="32">
+      <c r="G24" s="18"/>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="21">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1</v>
-      </c>
-      <c r="F25" s="21">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
         <v>13</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="8">
+      <c r="G25" s="37"/>
+      <c r="H25" s="38">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39">
         <v>13</v>
       </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1</v>
-      </c>
-      <c r="F26" s="22">
+      <c r="A26" s="40"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0.83</v>
+      </c>
+      <c r="F26" s="41">
         <v>32</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="G26" s="37"/>
+      <c r="H26" s="42">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="21">
+      <c r="B27" s="20"/>
+      <c r="C27" s="9">
         <v>0.48</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="9">
         <v>0.76</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="9">
         <v>0.59</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="9">
         <v>29</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <v>22</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="22">
+      <c r="A28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="10">
         <v>0.27</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="10">
         <v>0.37</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="10">
         <v>33</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="10">
+      <c r="H28" s="7">
         <v>24</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="21">
-        <v>1</v>
-      </c>
-      <c r="D29" s="21">
+      <c r="B29" s="20"/>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
         <v>0.27</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="9">
         <v>0.42</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="9">
         <v>15</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="8">
+      <c r="H29" s="5">
         <v>4</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="23">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D30" s="23">
-        <v>1</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
         <v>0.72</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="11">
         <v>14</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="21">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0.08</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F34" s="36">
         <v>13</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="8">
+      <c r="G34" s="37"/>
+      <c r="H34" s="38">
+        <v>1</v>
+      </c>
+      <c r="I34" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="41">
+        <v>0.73</v>
+      </c>
+      <c r="D35" s="41">
+        <v>1</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.84</v>
+      </c>
+      <c r="F35" s="41">
+        <v>32</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="42">
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="F36" s="9">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="5">
+        <v>29</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="7">
+        <v>33</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F38" s="12">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="13">
+        <v>8</v>
+      </c>
+      <c r="I38" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="F39" s="15">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36">
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+      <c r="E40" s="36">
+        <v>0</v>
+      </c>
+      <c r="F40" s="36">
         <v>13</v>
       </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="22">
-        <v>1</v>
-      </c>
-      <c r="F35" s="22">
+      <c r="G40" s="37"/>
+      <c r="H40" s="38">
+        <v>0</v>
+      </c>
+      <c r="I40" s="39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="41">
+        <v>0.71</v>
+      </c>
+      <c r="D41" s="41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="41">
+        <v>0.83</v>
+      </c>
+      <c r="F41" s="41">
         <v>32</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="G41" s="37"/>
+      <c r="H41" s="42">
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="21">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="F42" s="9">
         <v>29</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="8">
+      <c r="G42" s="2"/>
+      <c r="H42" s="5">
         <v>29</v>
       </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="22">
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
         <v>33</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="10">
+      <c r="G43" s="2"/>
+      <c r="H43" s="7">
         <v>33</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26">
-        <v>1</v>
-      </c>
-      <c r="D38" s="26">
-        <v>0.53</v>
-      </c>
-      <c r="E38" s="26">
-        <v>0.7</v>
-      </c>
-      <c r="F38" s="26">
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F44" s="9">
         <v>15</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="27">
-        <v>8</v>
-      </c>
-      <c r="I38" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="30">
+      <c r="G44" s="2"/>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
         <v>0.67</v>
       </c>
-      <c r="D39" s="30">
-        <v>1</v>
-      </c>
-      <c r="E39" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="F39" s="30">
+      <c r="F45" s="11">
         <v>14</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="31">
-        <v>0</v>
-      </c>
-      <c r="I39" s="32">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21">
-        <v>1</v>
-      </c>
-      <c r="F40" s="21">
-        <v>13</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="8">
-        <v>13</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="22">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22">
-        <v>1</v>
-      </c>
-      <c r="F41" s="22">
-        <v>32</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="21">
-        <v>29</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="8">
-        <v>29</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="22">
-        <v>33</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10">
-        <v>33</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="21">
-        <v>1</v>
-      </c>
-      <c r="D44" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0.12</v>
-      </c>
-      <c r="F44" s="21">
-        <v>15</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-      <c r="I44" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="23">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0.67</v>
-      </c>
-      <c r="F45" s="23">
-        <v>14</v>
-      </c>
       <c r="G45" s="3"/>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B15"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="H33:I33"/>
@@ -1733,17 +1752,17 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B15"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
